--- a/Job Testing.xlsx
+++ b/Job Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\New Mexico\NM-eps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F503E-4AE9-48E2-A11E-AFE8A4BAB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E028E-28DD-4485-AEF4-76318E242630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{429CCD5D-B57A-4ED4-A98F-CAA83B5DFE0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{429CCD5D-B57A-4ED4-A98F-CAA83B5DFE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2217,6 +2217,9506 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Job Testing.xlsx]Summary!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$5:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Passenger Car ZEV Sales Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$5:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=California HDV Rules</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$5:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Power Sector Coal Regs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$5:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-872</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1338</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-465</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-285</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-218</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-189</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-145</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Power Sector Gas Regs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$5:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=EV Charger Deployment </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$5:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Grid Flexibility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$H$5:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1344</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Afforestation and Reforestation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$I$5:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Cement Clinker Substitution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$J$5:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Cropland Measures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$K$5:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=F-Gas Policies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$L$5:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Hydrogen Electrolysis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$M$5:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3358</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4166</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4383</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4756</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Forest Management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$N$5:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$O$3:$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Industrial Fuel Switching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-42E8-4EF0-899C-807BD637747F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$O$5:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10407</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11955</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13275</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15594</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19641</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20262</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20720</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21048</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21564</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22421</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22936</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$P$3:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Livestock Measures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$P$5:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$3:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Methane Capture and Destruction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$Q$5:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$R$3:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Building Electrification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$R$5:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$S$3:$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Industrial CCS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$S$5:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$T$3:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Electricity PTC/ITC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$T$5:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$U$3:$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Passenger Mode Shifting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$U$5:$U$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$V$3:$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Freight Logistics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$V$5:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-166</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-178</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-181</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$W$3:$W$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Reduction in Industry Product Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$W$5:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000032-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$X$3:$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Fuel Economy Standards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$X$5:$X$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-121</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$3:$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Industrial Energy Efficiency Standards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$Y$5:$Y$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1218</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1737</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3489</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3689</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3917</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4348</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4572</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Z$3:$Z$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Building Codes and Appliance Standards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$Z$5:$Z$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-440</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-480</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-660</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-688</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-723</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-762</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-785</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-814</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-834</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-892</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$AA$3:$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=100% Clean Electricity Standard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$AA$5:$AA$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-226</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-295</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-446</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-556</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-594</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$AB$3:$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Building Retrofitting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$AB$5:$AB$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$AC$3:$AC$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=Subsidy for Elec Production - Nuclear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$AC$5:$AC$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000038-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$AD$3:$AD$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DisabledPolicyGroup=All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$5:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>Sum of 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sum of 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sum of 2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sum of 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sum of 2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sum of 2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sum of 2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sum of 2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sum of 2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sum of 2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sum of 2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sum of 2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sum of 2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sum of 2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Sum of 2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sum of 2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sum of 2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sum of 2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sum of 2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sum of 2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sum of 2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Sum of 2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sum of 2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Sum of 2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Sum of 2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Sum of 2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Sum of 2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Sum of 2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sum of 2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Sum of 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sum of 2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$AD$5:$AD$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13318</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14452</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15960</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16449</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18863</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22757</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23939</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24576</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25052</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26219</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27417</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-42E8-4EF0-899C-807BD637747F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1242004767"/>
+        <c:axId val="1241985631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1242004767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241985631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1241985631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242004767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65821089518714693"/>
+          <c:y val="9.0851773916191508E-2"/>
+          <c:w val="0.33333329634379499"/>
+          <c:h val="0.90914822608380852"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>113392</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>768349</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A30649-08F0-4092-83EE-F1450B944BB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4548,7 +14048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8F61551-5EDE-49E8-B4AF-4FBAB8C387CC}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8F61551-5EDE-49E8-B4AF-4FBAB8C387CC}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:AE35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisCol" showAll="0">
@@ -4872,6 +14372,368 @@
     <dataField name="Sum of 2049" fld="30" baseField="0" baseItem="0"/>
     <dataField name="Sum of 2050" fld="31" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="30">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="35"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="36"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="37"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="38"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="40"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="42"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="43"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="44"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="45"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="46"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="47"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="48"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="50"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="51"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="52"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="53"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="54"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="55"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="56"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="57"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="42"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4885,7 +14747,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EE0078-441B-450E-B0D8-8C334A5022F9}" name="PivotTable2" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14EE0078-441B-450E-B0D8-8C334A5022F9}" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:AE33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisCol" showAll="0">
@@ -5809,14 +15671,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839F86F-1600-402B-BE2B-ED62F8277E33}">
   <dimension ref="A3:AE44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="50.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -9515,7 +19406,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -17148,8 +27040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75035ECA-6A57-4A3D-95D0-51E33DF5366E}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
